--- a/biology/Botanique/Défaut_du_bois/Défaut_du_bois.xlsx
+++ b/biology/Botanique/Défaut_du_bois/Défaut_du_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9faut_du_bois</t>
+          <t>Défaut_du_bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les défauts du bois ou défectuosités du bois ou vices du bois sont les caractéristiques et inconvénients du bois, qui concernent à la fois le tronc de l'arbre entier, ainsi que ses sections individuelles, et qui aggravent ses propriétés et limitent ses possibilités d'utilisation. 
 Les défauts naturels (contrairement aux défauts de traitement ) se forment lors de la croissance d'un arbre, en raison de diverses conditions climatiques, du lieu de croissance, des dommages accidentels, du vieillissement naturel, de l'activité des micro-organismes, des parasites et des oiseaux. L'influence des défauts sur la qualité du bois est déterminée par son type, sa taille, son emplacement et la destination du bois. Par conséquent, des défauts indésirables dans certaines destinations du bois, peuvent ne pas être pris en compte dans d'autres, et peuvent être souhaités dans d'autres. Seuls les défauts qui réduisent considérablement la résistance du bois, tels que la pourriture, sont considérés comme inconditionnels. Certains défauts du bois sont utilisés à des fins décoratives dans la fabrication de meubles et d’autres produits. 
